--- a/Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
+++ b/Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
@@ -194,7 +194,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* \-??\ [$€-1]_-"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -292,12 +292,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -644,7 +638,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -741,10 +735,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -757,7 +747,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -765,11 +755,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -897,9 +887,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>324000</xdr:colOff>
+      <xdr:colOff>323640</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>351360</xdr:rowOff>
+      <xdr:rowOff>351000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -909,7 +899,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12522600" y="1704600"/>
-          <a:ext cx="136800" cy="170640"/>
+          <a:ext cx="136440" cy="170280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -955,9 +945,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>353160</xdr:colOff>
+      <xdr:colOff>352800</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>342000</xdr:rowOff>
+      <xdr:rowOff>341640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -967,7 +957,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12531960" y="1723680"/>
-          <a:ext cx="156600" cy="142200"/>
+          <a:ext cx="156240" cy="141840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1014,8 +1004,8 @@
   </sheetPr>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1164,7 +1154,9 @@
       <c r="A9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="19" t="n">
+        <v>44318</v>
+      </c>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="22"/>
@@ -1176,8 +1168,8 @@
       <c r="A10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="24" t="n">
-        <v>44531</v>
+      <c r="B10" s="19" t="n">
+        <v>44278</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="21"/>
@@ -1190,7 +1182,7 @@
       <c r="A11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="22"/>
       <c r="D11" s="21"/>
       <c r="E11" s="22"/>
@@ -1202,7 +1194,7 @@
       <c r="A12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="22"/>
       <c r="D12" s="21"/>
       <c r="E12" s="22"/>
@@ -1214,7 +1206,7 @@
       <c r="A13" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="21"/>
@@ -1222,85 +1214,85 @@
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="26"/>
+      <c r="H13" s="25"/>
     </row>
     <row r="14" s="16" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="21"/>
       <c r="F14" s="22"/>
-      <c r="G14" s="28"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="23"/>
     </row>
     <row r="15" s="16" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="18"/>
-      <c r="B15" s="25"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
-      <c r="H15" s="26"/>
+      <c r="H15" s="25"/>
     </row>
     <row r="16" s="16" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
     </row>
     <row r="17" s="16" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="25"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="21"/>
-      <c r="H17" s="26"/>
+      <c r="H17" s="25"/>
     </row>
     <row r="18" s="16" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="33"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
     </row>
     <row r="19" s="16" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
     </row>
     <row r="20" s="16" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="22"/>
@@ -1312,23 +1304,23 @@
     </row>
     <row r="21" s="16" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="18"/>
-      <c r="B21" s="25"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="26"/>
+      <c r="H21" s="25"/>
     </row>
     <row r="22" s="16" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="38"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="37"/>
     </row>
     <row r="23" s="16" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0"/>
@@ -1452,14 +1444,14 @@
       <c r="H34" s="0"/>
     </row>
     <row r="35" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="39"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="12">
